--- a/Import/Inventories/location_template.xlsx
+++ b/Import/Inventories/location_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\argip\OneDrive\Gambar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6F9E8-124C-475C-8220-472C9EF939EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FCB11-31DA-434C-A89D-3D0CAB1C5F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,16 +66,16 @@
     <t>Company</t>
   </si>
   <si>
+    <t>Room 101 (General Ward)</t>
+  </si>
+  <si>
+    <t>Main Hospital</t>
+  </si>
+  <si>
+    <t>Internal Location</t>
+  </si>
+  <si>
     <t>McHealthCare</t>
-  </si>
-  <si>
-    <t>Internal Location</t>
-  </si>
-  <si>
-    <t>Room 101 (General Ward)</t>
-  </si>
-  <si>
-    <t>Main Hospital</t>
   </si>
   <si>
     <t>Room 102 (Private Ward)</t>
@@ -248,10 +248,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" activeCellId="1" sqref="E28 F25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="36.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
@@ -592,7 +592,7 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,364 +606,285 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
